--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Egf-Erbb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Egf-Erbb2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.203876533473745</v>
+        <v>0.2711976666666667</v>
       </c>
       <c r="H2">
-        <v>0.203876533473745</v>
+        <v>0.813593</v>
       </c>
       <c r="I2">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="J2">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N2">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P2">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q2">
-        <v>0.7556600748380211</v>
+        <v>1.006086753420222</v>
       </c>
       <c r="R2">
-        <v>0.7556600748380211</v>
+        <v>9.054780780782</v>
       </c>
       <c r="S2">
-        <v>0.08440858356602984</v>
+        <v>0.08753320880552283</v>
       </c>
       <c r="T2">
-        <v>0.08440858356602984</v>
+        <v>0.08753320880552286</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.203876533473745</v>
+        <v>0.2711976666666667</v>
       </c>
       <c r="H3">
-        <v>0.203876533473745</v>
+        <v>0.813593</v>
       </c>
       <c r="I3">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="J3">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N3">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P3">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q3">
-        <v>0.7189344212826483</v>
+        <v>0.9760407639302223</v>
       </c>
       <c r="R3">
-        <v>0.7189344212826483</v>
+        <v>8.784366875372001</v>
       </c>
       <c r="S3">
-        <v>0.08030626229702507</v>
+        <v>0.08491909837930375</v>
       </c>
       <c r="T3">
-        <v>0.08030626229702507</v>
+        <v>0.08491909837930377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.203876533473745</v>
+        <v>0.2711976666666667</v>
       </c>
       <c r="H4">
-        <v>0.203876533473745</v>
+        <v>0.813593</v>
       </c>
       <c r="I4">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="J4">
-        <v>0.1946559682791135</v>
+        <v>0.2043600193410237</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N4">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P4">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q4">
-        <v>0.2680451424463746</v>
+        <v>0.3667399718387778</v>
       </c>
       <c r="R4">
-        <v>0.2680451424463746</v>
+        <v>3.300659746549</v>
       </c>
       <c r="S4">
-        <v>0.02994112241605859</v>
+        <v>0.03190771215619709</v>
       </c>
       <c r="T4">
-        <v>0.02994112241605859</v>
+        <v>0.0319077121561971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.45608127587475</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H5">
-        <v>0.45608127587475</v>
+        <v>1.533021</v>
       </c>
       <c r="I5">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="J5">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N5">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P5">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q5">
-        <v>1.69044668941321</v>
+        <v>1.895729339872667</v>
       </c>
       <c r="R5">
-        <v>1.69044668941321</v>
+        <v>17.061564058854</v>
       </c>
       <c r="S5">
-        <v>0.1888259223935303</v>
+        <v>0.1649353513319946</v>
       </c>
       <c r="T5">
-        <v>0.1888259223935303</v>
+        <v>0.1649353513319946</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.45608127587475</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H6">
-        <v>0.45608127587475</v>
+        <v>1.533021</v>
       </c>
       <c r="I6">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="J6">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N6">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P6">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q6">
-        <v>1.608289696425954</v>
+        <v>1.839114874342667</v>
       </c>
       <c r="R6">
-        <v>1.608289696425954</v>
+        <v>16.552033869084</v>
       </c>
       <c r="S6">
-        <v>0.1796488391533114</v>
+        <v>0.1600096868047521</v>
       </c>
       <c r="T6">
-        <v>0.1796488391533114</v>
+        <v>0.1600096868047521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.45608127587475</v>
+        <v>0.5110070000000001</v>
       </c>
       <c r="H7">
-        <v>0.45608127587475</v>
+        <v>1.533021</v>
       </c>
       <c r="I7">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="J7">
-        <v>0.4354544432197039</v>
+        <v>0.3850674737985645</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N7">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P7">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q7">
-        <v>0.5996294349134346</v>
+        <v>0.6910335737503335</v>
       </c>
       <c r="R7">
-        <v>0.5996294349134346</v>
+        <v>6.219302163753</v>
       </c>
       <c r="S7">
-        <v>0.06697968167286222</v>
+        <v>0.06012243566181794</v>
       </c>
       <c r="T7">
-        <v>0.06697968167286222</v>
+        <v>0.06012243566181794</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.149581067623584</v>
+        <v>0.181472</v>
       </c>
       <c r="H8">
-        <v>0.149581067623584</v>
+        <v>0.544416</v>
       </c>
       <c r="I8">
-        <v>0.14281608117612</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="J8">
-        <v>0.14281608117612</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N8">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P8">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q8">
-        <v>0.5544161401456474</v>
+        <v>0.6732232528426667</v>
       </c>
       <c r="R8">
-        <v>0.5544161401456474</v>
+        <v>6.059009275584001</v>
       </c>
       <c r="S8">
-        <v>0.06192927568109356</v>
+        <v>0.05857287292917653</v>
       </c>
       <c r="T8">
-        <v>0.06192927568109356</v>
+        <v>0.05857287292917654</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.149581067623584</v>
+        <v>0.181472</v>
       </c>
       <c r="H9">
-        <v>0.149581067623584</v>
+        <v>0.544416</v>
       </c>
       <c r="I9">
-        <v>0.14281608117612</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="J9">
-        <v>0.14281608117612</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N9">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P9">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q9">
-        <v>0.5274710946596058</v>
+        <v>0.6531179699626667</v>
       </c>
       <c r="R9">
-        <v>0.5274710946596058</v>
+        <v>5.878061729664001</v>
       </c>
       <c r="S9">
-        <v>0.05891946584816498</v>
+        <v>0.05682364015332855</v>
       </c>
       <c r="T9">
-        <v>0.05891946584816498</v>
+        <v>0.05682364015332855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.149581067623584</v>
+        <v>0.181472</v>
       </c>
       <c r="H10">
-        <v>0.149581067623584</v>
+        <v>0.544416</v>
       </c>
       <c r="I10">
-        <v>0.14281608117612</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="J10">
-        <v>0.14281608117612</v>
+        <v>0.1367475682430438</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N10">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P10">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q10">
-        <v>0.1966605861660272</v>
+        <v>0.2454041621653333</v>
       </c>
       <c r="R10">
-        <v>0.1966605861660272</v>
+        <v>2.208637459488</v>
       </c>
       <c r="S10">
-        <v>0.02196733964686141</v>
+        <v>0.02135105516053875</v>
       </c>
       <c r="T10">
-        <v>0.02196733964686141</v>
+        <v>0.02135105516053875</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0758980719371771</v>
+        <v>0.08639666666666668</v>
       </c>
       <c r="H11">
-        <v>0.0758980719371771</v>
+        <v>0.25919</v>
       </c>
       <c r="I11">
-        <v>0.07246548894923016</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="J11">
-        <v>0.07246548894923016</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N11">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P11">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q11">
-        <v>0.2813131150647832</v>
+        <v>0.3205136052288889</v>
       </c>
       <c r="R11">
-        <v>0.2813131150647832</v>
+        <v>2.88462244706</v>
       </c>
       <c r="S11">
-        <v>0.0314231787173033</v>
+        <v>0.02788585003841413</v>
       </c>
       <c r="T11">
-        <v>0.0314231787173033</v>
+        <v>0.02788585003841413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.0758980719371771</v>
+        <v>0.08639666666666668</v>
       </c>
       <c r="H12">
-        <v>0.0758980719371771</v>
+        <v>0.25919</v>
       </c>
       <c r="I12">
-        <v>0.07246548894923016</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="J12">
-        <v>0.07246548894923016</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N12">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P12">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q12">
-        <v>0.2676410840174018</v>
+        <v>0.310941718528889</v>
       </c>
       <c r="R12">
-        <v>0.2676410840174018</v>
+        <v>2.798475466760001</v>
       </c>
       <c r="S12">
-        <v>0.02989598836597024</v>
+        <v>0.02705306106238837</v>
       </c>
       <c r="T12">
-        <v>0.02989598836597024</v>
+        <v>0.02705306106238837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.0758980719371771</v>
+        <v>0.08639666666666668</v>
       </c>
       <c r="H13">
-        <v>0.0758980719371771</v>
+        <v>0.25919</v>
       </c>
       <c r="I13">
-        <v>0.07246548894923016</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="J13">
-        <v>0.07246548894923016</v>
+        <v>0.06510389520681709</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N13">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O13">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P13">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q13">
-        <v>0.09978642052213289</v>
+        <v>0.1168340107411111</v>
       </c>
       <c r="R13">
-        <v>0.09978642052213289</v>
+        <v>1.05150609667</v>
       </c>
       <c r="S13">
-        <v>0.01114632186595662</v>
+        <v>0.01016498410601459</v>
       </c>
       <c r="T13">
-        <v>0.01114632186595662</v>
+        <v>0.01016498410601459</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.161931571440504</v>
+        <v>0.276985</v>
       </c>
       <c r="H14">
-        <v>0.161931571440504</v>
+        <v>0.830955</v>
       </c>
       <c r="I14">
-        <v>0.1546080183758323</v>
+        <v>0.2087210434105509</v>
       </c>
       <c r="J14">
-        <v>0.1546080183758323</v>
+        <v>0.2087210434105509</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.70645930633961</v>
+        <v>3.709791333333333</v>
       </c>
       <c r="N14">
-        <v>3.70645930633961</v>
+        <v>11.129374</v>
       </c>
       <c r="O14">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="P14">
-        <v>0.4336295686808738</v>
+        <v>0.4283284425582907</v>
       </c>
       <c r="Q14">
-        <v>0.6001927799558534</v>
+        <v>1.027556552463333</v>
       </c>
       <c r="R14">
-        <v>0.6001927799558534</v>
+        <v>9.24800897217</v>
       </c>
       <c r="S14">
-        <v>0.06704260832291675</v>
+        <v>0.08940115945318262</v>
       </c>
       <c r="T14">
-        <v>0.06704260832291675</v>
+        <v>0.08940115945318267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.161931571440504</v>
+        <v>0.276985</v>
       </c>
       <c r="H15">
-        <v>0.161931571440504</v>
+        <v>0.830955</v>
       </c>
       <c r="I15">
-        <v>0.1546080183758323</v>
+        <v>0.2087210434105509</v>
       </c>
       <c r="J15">
-        <v>0.1546080183758323</v>
+        <v>0.2087210434105509</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.52632256902304</v>
+        <v>3.599001333333334</v>
       </c>
       <c r="N15">
-        <v>3.52632256902304</v>
+        <v>10.797004</v>
       </c>
       <c r="O15">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499981</v>
       </c>
       <c r="P15">
-        <v>0.412554842304529</v>
+        <v>0.4155367505499982</v>
       </c>
       <c r="Q15">
-        <v>0.571022955008016</v>
+        <v>0.9968693843133334</v>
       </c>
       <c r="R15">
-        <v>0.571022955008016</v>
+        <v>8.97182445882</v>
       </c>
       <c r="S15">
-        <v>0.0637842866400572</v>
+        <v>0.0867312641502254</v>
       </c>
       <c r="T15">
-        <v>0.0637842866400572</v>
+        <v>0.08673126415022543</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.161931571440504</v>
+        <v>0.276985</v>
       </c>
       <c r="H16">
-        <v>0.161931571440504</v>
+        <v>0.830955</v>
       </c>
       <c r="I16">
-        <v>0.1546080183758323</v>
+        <v>0.2087210434105509</v>
       </c>
       <c r="J16">
-        <v>0.1546080183758323</v>
+        <v>0.2087210434105509</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.31474249576101</v>
+        <v>1.352297666666667</v>
       </c>
       <c r="N16">
-        <v>1.31474249576101</v>
+        <v>4.056893</v>
       </c>
       <c r="O16">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="P16">
-        <v>0.1538155890145972</v>
+        <v>0.1561348068917112</v>
       </c>
       <c r="Q16">
-        <v>0.2128983183781905</v>
+        <v>0.3745661692016666</v>
       </c>
       <c r="R16">
-        <v>0.2128983183781905</v>
+        <v>3.371095522815</v>
       </c>
       <c r="S16">
-        <v>0.0237811234128583</v>
+        <v>0.03258861980714283</v>
       </c>
       <c r="T16">
-        <v>0.0237811234128583</v>
+        <v>0.03258861980714284</v>
       </c>
     </row>
   </sheetData>
